--- a/metagenomics_software_list.xlsx
+++ b/metagenomics_software_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yfan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yfan/Desktop/bio-apple/metagenomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952525B7-0AF2-BC4A-B8C7-82D21183D9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AE63CB-DDD7-364F-BDE7-DD9DE4C0F445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16960" xr2:uid="{AF1AC548-AC05-4F43-B3C0-9206748140B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Bush S J, Connor T R, Peto T E A, et al. Evaluation of methods for detecting human reads in microbial sequencing datasets[J]. Microbial genomics, 2020, 6(7): e000393.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,50 @@
       <t>pass FASTQ data preprocessing, quality control, and deduplication using fastp[J]. Imeta, 2023, 2(2): e107.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">datbase:CARD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(v3.2.9) &amp;&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">software:rgi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(6.0.3)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alcock B P, Huynh W, Chalil R, et al. CARD 2023: expanded curation, support for machine learning, and resistome prediction at the Comprehensive Antibiotic Resistance Database[J]. Nucleic acids research, 2023, 51(D1): D690-D699.</t>
   </si>
 </sst>
 </file>
@@ -422,7 +466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,6 +485,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -454,25 +510,19 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,148 +858,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D5B6BF-AB48-1D48-A357-778A2BCE2239}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="3.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31" style="4" customWidth="1"/>
     <col min="3" max="3" width="20" style="2" customWidth="1"/>
     <col min="4" max="5" width="12.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="179.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="179.5" style="6" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="16">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="16" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="17" customHeight="1"/>
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="17" customHeight="1"/>
     <row r="5" spans="1:6" ht="17" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="15" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="15" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1"/>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="16" customHeight="1"/>
     <row r="9" spans="1:6" ht="17" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="13">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="15" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" customHeight="1">
-      <c r="A11" s="9"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="16" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1"/>
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="20" customHeight="1"/>
     <row r="13" spans="1:6" ht="17" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="13">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -958,49 +1008,49 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19" customHeight="1">
-      <c r="A14" s="9"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" ht="20" customHeight="1"/>
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1"/>
     <row r="17" spans="1:6" ht="18" customHeight="1">
       <c r="A17" s="2">
         <v>5</v>
@@ -1011,181 +1061,190 @@
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="16" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" ht="18" customHeight="1"/>
-    <row r="19" spans="1:6" ht="19" customHeight="1">
-      <c r="A19" s="2">
+    <row r="18" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1"/>
+    <row r="19" spans="1:6" ht="18" customHeight="1">
+      <c r="A19" s="9">
         <v>6</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="16" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="6" customFormat="1" ht="18" customHeight="1"/>
-    <row r="21" spans="1:6" ht="18" customHeight="1">
-      <c r="A21" s="6">
+    <row r="21" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1"/>
+    <row r="22" spans="1:6" ht="18" customHeight="1">
+      <c r="A22" s="10">
         <v>7</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="15" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="4" t="s">
+    <row r="23" spans="1:6" ht="18" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="15" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="6" customFormat="1" ht="18" customHeight="1"/>
-    <row r="24" spans="1:6">
-      <c r="A24" s="9">
+    <row r="24" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1"/>
+    <row r="25" spans="1:6">
+      <c r="A25" s="13">
         <v>8</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B25" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="16" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="2" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="13"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="16" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30">
-      <c r="A26" s="9"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="2" t="s">
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="13"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="15" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="19" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="13"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="15" t="s">
+    <row r="28" spans="1:6" ht="19" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="16"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="11" customFormat="1"/>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2">
+    <row r="29" spans="1:6" s="9" customFormat="1"/>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
         <v>9</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D30" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="16" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="11" customFormat="1"/>
-    <row r="31" spans="1:6">
-      <c r="A31" s="6">
+    <row r="31" spans="1:6" s="9" customFormat="1"/>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10">
         <v>10</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D32" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="16" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="15" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="6" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="D24:E27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:XFD28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="39">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D22:E23"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="A2:A3"/>
@@ -1196,17 +1255,22 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="D9:E11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="A23:XFD23"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A31:XFD31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="D25:E28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
